--- a/biology/Médecine/Triple_test/Triple_test.xlsx
+++ b/biology/Médecine/Triple_test/Triple_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triple test est un test de dépistage pratiqué généralement entre 15 et 20 semaines de grossesse.
 Il inclut non seulement le dosage de l'alpha-fœtoprotéine sanguine, mais aussi celui de l'HCG et de l'estriol libre. En France, ce test est proposé (et non « imposé ») à toutes les femmes enceintes de moins de 38 ans. Ce test peut aider à identifier les grossesses à risque, celles avec un risque accru d'accoucher d'un bébé atteint de certains problèmes parmi lesquels :
@@ -518,9 +530,11 @@
           <t>Quadruple test</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On peut ajouter également au triple test le dosage de l'inhibine A. On nomme alors ce test de dépistage le quadruple test. Bien qu'il ne soit pas démontré supérieur au triple test, le quadruple test est celui qui est proposé comme test du deuxième trimestre au Québec[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut ajouter également au triple test le dosage de l'inhibine A. On nomme alors ce test de dépistage le quadruple test. Bien qu'il ne soit pas démontré supérieur au triple test, le quadruple test est celui qui est proposé comme test du deuxième trimestre au Québec.
 </t>
         </is>
       </c>
